--- a/螺纹/eta/1.螺纹_数据上传.xlsx
+++ b/螺纹/eta/1.螺纹_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23415" windowHeight="15600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>

--- a/螺纹/eta/1.螺纹_数据上传.xlsx
+++ b/螺纹/eta/1.螺纹_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23415" windowHeight="15600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1155,7 +1155,7 @@
         <v>45777</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-357.78</v>
+        <v>-228.44</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1015304155619739</v>
+        <v>0.1026978936319255</v>
       </c>
       <c r="K3" s="16" t="n"/>
     </row>
@@ -1195,7 +1195,7 @@
         <v>45805</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>3426.8</v>
+        <v>3601.4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.0144396343406948</v>
+        <v>0.01413540334825357</v>
       </c>
       <c r="K4" s="17" t="n"/>
     </row>
@@ -1235,7 +1235,7 @@
         <v>45805</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>3069.1</v>
+        <v>3372.9</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.01087683108600551</v>
+        <v>0.01067607492299106</v>
       </c>
       <c r="K5" s="17" t="n"/>
     </row>
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-357.78</v>
+        <v>-228.44</v>
       </c>
       <c r="E3" s="2" t="n"/>
       <c r="F3" t="inlineStr">
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3426.8</v>
+        <v>3601.4</v>
       </c>
       <c r="J3" s="2" t="n"/>
       <c r="K3" t="inlineStr">
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3069.1</v>
+        <v>3372.9</v>
       </c>
       <c r="O3" s="2" t="n"/>
       <c r="AU3" s="15" t="n"/>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-305.84</v>
+        <v>-309.06</v>
       </c>
       <c r="C4" t="n">
         <v>-274.17</v>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.1035508762751764</v>
+        <v>0.1128907008347893</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3367.5</v>
+        <v>3375.6</v>
       </c>
       <c r="H4" t="n">
         <v>3415.6</v>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.0142835931700074</v>
+        <v>0.01184974523047755</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3061.7</v>
+        <v>3066.5</v>
       </c>
       <c r="M4" t="n">
         <v>3141.4</v>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.02603128980631684</v>
+        <v>0.02442524050220124</v>
       </c>
       <c r="T4" s="19" t="n"/>
       <c r="Y4" s="19" t="n"/>
@@ -3335,2958 +3335,2958 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-356.7365112304688</v>
+        <v>-226.8353424072266</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3403.924788</v>
+        <v>3603.275236</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3047.224788</v>
+        <v>3376.475236</v>
       </c>
       <c r="P3" s="20" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-356.6749877929688</v>
+        <v>-226.7173919677734</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3398.068829</v>
+        <v>3597.737236</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>3041.368829</v>
+        <v>3371.037236</v>
       </c>
       <c r="P4" s="20" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-356.6158447265625</v>
+        <v>-228.9613189697266</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3402.161481</v>
+        <v>3592.616536</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3045.561481</v>
+        <v>3363.616536</v>
       </c>
       <c r="P5" s="20" t="n"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-356.60986328125</v>
+        <v>-228.3300170898438</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3405.0540025</v>
+        <v>3575.8155295</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3048.454003</v>
+        <v>3347.51553</v>
       </c>
       <c r="P6" s="20" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-358.4345397949219</v>
+        <v>-228.4091186523438</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3420.298364</v>
+        <v>3580.4230835</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3061.898364</v>
+        <v>3352.023083</v>
       </c>
       <c r="P7" s="20" t="n"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-356.5982055664062</v>
+        <v>-227.7510833740234</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3400.965156</v>
+        <v>3578.546257</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3044.365156</v>
+        <v>3350.746257</v>
       </c>
       <c r="P8" s="20" t="n"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-356.818115234375</v>
+        <v>-227.5475463867188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3406.2147795</v>
+        <v>3608.5248315</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3049.41478</v>
+        <v>3381.024831</v>
       </c>
       <c r="P9" s="20" t="n"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-356.7947387695312</v>
+        <v>-227.0293426513672</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3438.652764</v>
+        <v>3587.0054855</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3081.852764</v>
+        <v>3360.005485</v>
       </c>
       <c r="P10" s="20" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-357.017578125</v>
+        <v>-227.2874298095703</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3458.9696575</v>
+        <v>3572.194325</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3101.969657</v>
+        <v>3344.894325</v>
       </c>
       <c r="P11" s="20" t="n"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-360.1254272460938</v>
+        <v>-227.009033203125</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3456.6038215</v>
+        <v>3619.418305</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3096.503821</v>
+        <v>3392.418305</v>
       </c>
       <c r="P12" s="20" t="n"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-361.3121948242188</v>
+        <v>-227.0669097900391</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3448.665906</v>
+        <v>3608.6331645</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3087.365906</v>
+        <v>3381.533165</v>
       </c>
       <c r="P13" s="20" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-361.3272705078125</v>
+        <v>-227.0185852050781</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3450.922796</v>
+        <v>3618.9358945</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>3089.622796</v>
+        <v>3391.935894</v>
       </c>
       <c r="P14" s="20" t="n"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-363.229248046875</v>
+        <v>-227.1543884277344</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3436.2019365</v>
+        <v>3618.376475</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3073.001937</v>
+        <v>3391.176475</v>
       </c>
       <c r="P15" s="20" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-361.4454650878906</v>
+        <v>-229.6415100097656</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3436.4298065</v>
+        <v>3615.5656725</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3075.029806</v>
+        <v>3385.965672</v>
       </c>
       <c r="P16" s="20" t="n"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-346.9085083007812</v>
+        <v>-231.8926086425781</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3439.058507</v>
+        <v>3615.3975205</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3092.158507</v>
+        <v>3383.49752</v>
       </c>
       <c r="P17" s="20" t="n"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-342.40185546875</v>
+        <v>-232.0165863037109</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3455.8137375</v>
+        <v>3615.093078</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3113.413738</v>
+        <v>3383.093078</v>
       </c>
       <c r="P18" s="20" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-342.2498779296875</v>
+        <v>-232.8726348876953</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3443.469592</v>
+        <v>3615.501156</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3101.269592</v>
+        <v>3382.601156</v>
       </c>
       <c r="P19" s="20" t="n"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-342.8290405273438</v>
+        <v>-228.7680206298828</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3442.732017</v>
+        <v>3618.1204935</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3099.932017</v>
+        <v>3389.320494</v>
       </c>
       <c r="P20" s="20" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-340.895751953125</v>
+        <v>-217.81298828125</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3416.6206215</v>
+        <v>3504.14765</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3075.720622</v>
+        <v>3286.34765</v>
       </c>
       <c r="P21" s="20" t="n"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-343.4500122070312</v>
+        <v>-213.7485656738281</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3407.4570965</v>
+        <v>3416.7082665</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>3063.957096</v>
+        <v>3203.008266</v>
       </c>
       <c r="P22" s="20" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-343.45</v>
+        <v>-330</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>3389.45</v>
+          <t>2025/10/29</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3406.1578965</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3046</v>
+          <t>2025/10/29</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>3192.457896</v>
       </c>
       <c r="P23" s="20" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-333.9</v>
+        <v>-326.8</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3404.9</v>
+        <v>3421</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3071</v>
+        <v>3091</v>
       </c>
       <c r="P24" s="20" t="n"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-302.55</v>
+        <v>-343.45</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3370.55</v>
+        <v>3426.8</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3068</v>
+        <v>3100</v>
       </c>
       <c r="P25" s="20" t="n"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-297.15</v>
+        <v>-333.9</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3344.15</v>
+        <v>3389.45</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="P26" s="20" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-313.9</v>
+        <v>-302.55</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3358.9</v>
+        <v>3404.9</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3045</v>
+        <v>3071</v>
       </c>
       <c r="P27" s="20" t="n"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-311.7</v>
+        <v>-297.15</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3348.7</v>
+        <v>3370.55</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3037</v>
+        <v>3068</v>
       </c>
       <c r="P28" s="20" t="n"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-302.2</v>
+        <v>-313.9</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3351.2</v>
+        <v>3344.15</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="P29" s="20" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-307.05</v>
+        <v>-311.7</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3341.05</v>
+        <v>3358.9</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3034</v>
+        <v>3045</v>
       </c>
       <c r="P30" s="20" t="n"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-295.65</v>
+        <v>-302.2</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3356.65</v>
+        <v>3348.7</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3061</v>
+        <v>3037</v>
       </c>
       <c r="P31" s="20" t="n"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-305.9</v>
+        <v>-307.05</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3388.9</v>
+        <v>3351.2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3083</v>
+        <v>3049</v>
       </c>
       <c r="P32" s="20" t="n"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-281.75</v>
+        <v>-295.65</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3384.75</v>
+        <v>3341.05</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3103</v>
+        <v>3034</v>
       </c>
       <c r="P33" s="20" t="n"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-274.85</v>
+        <v>-305.9</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3370.85</v>
+        <v>3356.65</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3096</v>
+        <v>3061</v>
       </c>
       <c r="P34" s="20" t="n"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-266.35</v>
+        <v>-281.75</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3338.35</v>
+        <v>3388.9</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3072</v>
+        <v>3083</v>
       </c>
       <c r="P35" s="20" t="n"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-259.3</v>
+        <v>-274.85</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3356.3</v>
+        <v>3384.75</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3097</v>
+        <v>3103</v>
       </c>
       <c r="P36" s="20" t="n"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-275.25</v>
+        <v>-266.35</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3389.25</v>
+        <v>3370.85</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3114</v>
+        <v>3096</v>
       </c>
       <c r="P37" s="20" t="n"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-282.35</v>
+        <v>-259.3</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3449.35</v>
+        <v>3338.35</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3167</v>
+        <v>3072</v>
       </c>
       <c r="P38" s="20" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-266.95</v>
+        <v>-275.25</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3430.95</v>
+        <v>3356.3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3164</v>
+        <v>3097</v>
       </c>
       <c r="P39" s="20" t="n"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-268</v>
+        <v>-282.35</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3423</v>
+        <v>3389.25</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3155</v>
+        <v>3114</v>
       </c>
       <c r="P40" s="20" t="n"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-248.45</v>
+        <v>-266.95</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3433.45</v>
+        <v>3449.35</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3185</v>
+        <v>3167</v>
       </c>
       <c r="P41" s="20" t="n"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-270</v>
+        <v>-268</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3442</v>
+        <v>3430.95</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3172</v>
+        <v>3164</v>
       </c>
       <c r="P42" s="20" t="n"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-267.5</v>
+        <v>-248.45</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3414.5</v>
+        <v>3423</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3147</v>
+        <v>3155</v>
       </c>
       <c r="P43" s="20" t="n"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-266.9</v>
+        <v>-270</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3434.9</v>
+        <v>3433.45</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3168</v>
+        <v>3185</v>
       </c>
       <c r="P44" s="20" t="n"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-267.45</v>
+        <v>-267.5</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3433.45</v>
+        <v>3442</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3166</v>
+        <v>3172</v>
       </c>
       <c r="P45" s="20" t="n"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-261.45</v>
+        <v>-266.9</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3397.45</v>
+        <v>3414.5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3136</v>
+        <v>3147</v>
       </c>
       <c r="P46" s="20" t="n"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-244.9</v>
+        <v>-267.45</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3371.9</v>
+        <v>3434.9</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>3127</v>
+        <v>3168</v>
       </c>
       <c r="P47" s="20" t="n"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-275.35</v>
+        <v>-261.45</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3367.35</v>
+        <v>3433.45</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>3092</v>
+        <v>3166</v>
       </c>
       <c r="P48" s="20" t="n"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-261</v>
+        <v>-244.9</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3370</v>
+        <v>3397.45</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>3109</v>
+        <v>3136</v>
       </c>
       <c r="P49" s="20" t="n"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-244.25</v>
+        <v>-275.35</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3367.25</v>
+        <v>3371.9</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="P50" s="20" t="n"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-224.4</v>
+        <v>-261</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3356.4</v>
+        <v>3367.35</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3132</v>
+        <v>3092</v>
       </c>
       <c r="P51" s="20" t="n"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-222.4</v>
+        <v>-244.25</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>3365.4</v>
+        <v>3370</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3143</v>
+        <v>3109</v>
       </c>
       <c r="P52" s="20" t="n"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-219.3</v>
+        <v>-224.4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3336.3</v>
+        <v>3367.25</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>3117</v>
+        <v>3123</v>
       </c>
       <c r="P53" s="20" t="n"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-211.9</v>
+        <v>-222.4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3317.9</v>
+        <v>3356.4</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>3106</v>
+        <v>3132</v>
       </c>
       <c r="P54" s="20" t="n"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-192.8</v>
+        <v>-219.3</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3309.8</v>
+        <v>3365.4</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>3117</v>
+        <v>3143</v>
       </c>
       <c r="P55" s="20" t="n"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-184.45</v>
+        <v>-211.9</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3299.45</v>
+        <v>3336.3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>3115</v>
+        <v>3117</v>
       </c>
       <c r="P56" s="20" t="n"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-270.25</v>
+        <v>-192.8</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3360.25</v>
+        <v>3317.9</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>3090</v>
+        <v>3106</v>
       </c>
       <c r="P57" s="20" t="n"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-251.1</v>
+        <v>-184.45</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3380.1</v>
+        <v>3309.8</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>3129</v>
+        <v>3117</v>
       </c>
       <c r="P58" s="20" t="n"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-242.1</v>
+        <v>-270.25</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3353.1</v>
+        <v>3299.45</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="P59" s="20" t="n"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-247.55</v>
+        <v>-251.1</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3360.55</v>
+        <v>3360.25</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>3113</v>
+        <v>3090</v>
       </c>
       <c r="P60" s="20" t="n"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-267.9</v>
+        <v>-242.1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3405.9</v>
+        <v>3380.1</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>3138</v>
+        <v>3129</v>
       </c>
       <c r="P61" s="20" t="n"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-229.25</v>
+        <v>-247.55</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3348.25</v>
+        <v>3353.1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>3119</v>
+        <v>3111</v>
       </c>
       <c r="P62" s="20" t="n"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-224.25</v>
+        <v>-267.9</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3345.25</v>
+        <v>3360.55</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>3121</v>
+        <v>3113</v>
       </c>
       <c r="P63" s="20" t="n"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-214.3</v>
+        <v>-229.25</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3346.3</v>
+        <v>3405.9</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>3132</v>
+        <v>3138</v>
       </c>
       <c r="P64" s="20" t="n"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-238.95</v>
+        <v>-224.25</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3364.95</v>
+        <v>3348.25</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3126</v>
+        <v>3119</v>
       </c>
       <c r="P65" s="20" t="n"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-208.4</v>
+        <v>-214.3</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3363.4</v>
+        <v>3345.25</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>3155</v>
+        <v>3121</v>
       </c>
       <c r="P66" s="20" t="n"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-195.95</v>
+        <v>-238.95</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3383.95</v>
+        <v>3346.3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>3188</v>
+        <v>3132</v>
       </c>
       <c r="P67" s="20" t="n"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-182</v>
+        <v>-208.4</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3371</v>
+        <v>3364.95</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>3189</v>
+        <v>3126</v>
       </c>
       <c r="P68" s="20" t="n"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-198</v>
+        <v>-195.95</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3420</v>
+        <v>3363.4</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>3222</v>
+        <v>3155</v>
       </c>
       <c r="P69" s="20" t="n"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-209.7</v>
+        <v>-182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3467.7</v>
+        <v>3383.95</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>3258</v>
+        <v>3188</v>
       </c>
       <c r="P70" s="20" t="n"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-144.55</v>
+        <v>-198</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3394.55</v>
+        <v>3371</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>3250</v>
+        <v>3189</v>
       </c>
       <c r="P71" s="20" t="n"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-156.75</v>
+        <v>-209.7</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3369.75</v>
+        <v>3420</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>3213</v>
+        <v>3222</v>
       </c>
       <c r="P72" s="20" t="n"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-150.85</v>
+        <v>-144.55</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3381.85</v>
+        <v>3467.7</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>3231</v>
+        <v>3258</v>
       </c>
       <c r="P73" s="20" t="n"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-138.9</v>
+        <v>-156.75</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3372.9</v>
+        <v>3394.55</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>3234</v>
+        <v>3250</v>
       </c>
       <c r="P74" s="20" t="n"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-141.7</v>
+        <v>-150.85</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3374.7</v>
+        <v>3369.75</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>3233</v>
+        <v>3213</v>
       </c>
       <c r="P75" s="20" t="n"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-147.35</v>
+        <v>-138.9</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3351.35</v>
+        <v>3381.85</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>3204</v>
+        <v>3231</v>
       </c>
       <c r="P76" s="20" t="n"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-120.6</v>
+        <v>-141.7</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3323.6</v>
+        <v>3372.9</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>3203</v>
+        <v>3234</v>
       </c>
       <c r="P77" s="20" t="n"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-119.8</v>
+        <v>-147.35</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3324.8</v>
+        <v>3374.7</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>3205</v>
+        <v>3233</v>
       </c>
       <c r="P78" s="20" t="n"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-64.55</v>
+        <v>-120.6</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3379.55</v>
+        <v>3351.35</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>3315</v>
+        <v>3204</v>
       </c>
       <c r="P79" s="20" t="n"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-26.1</v>
+        <v>-119.8</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3373.1</v>
+        <v>3323.6</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>3347</v>
+        <v>3203</v>
       </c>
       <c r="P80" s="20" t="n"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-92.45</v>
+        <v>-64.55</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>3340.45</v>
+        <v>3324.8</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>3248</v>
+        <v>3205</v>
       </c>
       <c r="P81" s="20" t="n"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-89.75</v>
+        <v>-26.1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3445.75</v>
+        <v>3379.55</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>3356</v>
+        <v>3315</v>
       </c>
       <c r="P82" s="20" t="n"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-152.2</v>
+        <v>-92.45</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3446.2</v>
+        <v>3373.1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>3294</v>
+        <v>3347</v>
       </c>
       <c r="P83" s="20" t="n"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-160.15</v>
+        <v>-89.75</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>3434.15</v>
+        <v>3340.45</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>3274</v>
+        <v>3248</v>
       </c>
       <c r="P84" s="20" t="n"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-140.85</v>
+        <v>-152.2</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>3447.85</v>
+        <v>3445.75</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>3307</v>
+        <v>3356</v>
       </c>
       <c r="P85" s="20" t="n"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-152.8</v>
+        <v>-160.15</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3376.8</v>
+        <v>3446.2</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>3224</v>
+        <v>3294</v>
       </c>
       <c r="P86" s="20" t="n"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-146.5</v>
+        <v>-140.85</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3293.5</v>
+        <v>3434.15</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>3147</v>
+        <v>3274</v>
       </c>
       <c r="P87" s="20" t="n"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-161.85</v>
+        <v>-152.8</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3294.85</v>
+        <v>3447.85</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>3133</v>
+        <v>3307</v>
       </c>
       <c r="P88" s="20" t="n"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-155.35</v>
+        <v>-146.5</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3261.35</v>
+        <v>3376.8</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>3106</v>
+        <v>3224</v>
       </c>
       <c r="P89" s="20" t="n"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-146.9</v>
+        <v>-161.85</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3260.9</v>
+        <v>3293.5</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>3114</v>
+        <v>3147</v>
       </c>
       <c r="P90" s="20" t="n"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-127.55</v>
+        <v>-155.35</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3265.55</v>
+        <v>3294.85</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="P91" s="20" t="n"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-125.55</v>
+        <v>-146.9</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3258.55</v>
+        <v>3261.35</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>3133</v>
+        <v>3106</v>
       </c>
       <c r="P92" s="20" t="n"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-123.45</v>
+        <v>-127.55</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>3246.45</v>
+        <v>3260.9</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>3123</v>
+        <v>3114</v>
       </c>
       <c r="P93" s="20" t="n"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-117.05</v>
+        <v>-125.55</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3180.05</v>
+        <v>3265.55</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>3063</v>
+        <v>3138</v>
       </c>
       <c r="P94" s="20" t="n"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-95.34999999999999</v>
+        <v>-123.45</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3158.35</v>
+        <v>3258.55</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>3063</v>
+        <v>3133</v>
       </c>
       <c r="P95" s="20" t="n"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-92.95</v>
+        <v>-117.05</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>3153.95</v>
+        <v>3246.45</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>3061</v>
+        <v>3123</v>
       </c>
       <c r="P96" s="20" t="n"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-89.75</v>
+        <v>-95.34999999999999</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3161.75</v>
+        <v>3180.05</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>3072</v>
+        <v>3063</v>
       </c>
       <c r="P97" s="20" t="n"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-92.84999999999999</v>
+        <v>-92.95</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3168.85</v>
+        <v>3158.35</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>3076</v>
+        <v>3063</v>
       </c>
       <c r="P98" s="20" t="n"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-84.25</v>
+        <v>-89.75</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3149.25</v>
+        <v>3153.95</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="P99" s="20" t="n"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-95.7</v>
+        <v>-92.84999999999999</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3098.7</v>
+        <v>3161.75</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>3003</v>
+        <v>3072</v>
       </c>
       <c r="P100" s="20" t="n"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-121.35</v>
+        <v>-84.25</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>3118.35</v>
+        <v>3168.85</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>2997</v>
+        <v>3076</v>
       </c>
       <c r="P101" s="20" t="n"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-133.8</v>
+        <v>-95.7</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3128.8</v>
+        <v>3149.25</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>2995</v>
+        <v>3065</v>
       </c>
       <c r="P102" s="20" t="n"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-124.1</v>
+        <v>-121.35</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3097.1</v>
+        <v>3098.7</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>2973</v>
+        <v>3003</v>
       </c>
       <c r="P103" s="20" t="n"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-112</v>
+        <v>-133.8</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3088</v>
+        <v>3118.35</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>2976</v>
+        <v>2997</v>
       </c>
       <c r="P104" s="20" t="n"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-93.84999999999999</v>
+        <v>-124.1</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3070.85</v>
+        <v>3128.8</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>2977</v>
+        <v>2995</v>
       </c>
       <c r="P105" s="20" t="n"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-97.7</v>
+        <v>-112</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3092.7</v>
+        <v>3097.1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>2995</v>
+        <v>2973</v>
       </c>
       <c r="P106" s="20" t="n"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-95.34999999999999</v>
+        <v>-93.84999999999999</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3087.35</v>
+        <v>3088</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>2992</v>
+        <v>2976</v>
       </c>
       <c r="P107" s="20" t="n"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-87.59999999999999</v>
+        <v>-97.7</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>3073.6</v>
+        <v>3070.85</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>2986</v>
+        <v>2977</v>
       </c>
       <c r="P108" s="20" t="n"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-83.84999999999999</v>
+        <v>-95.34999999999999</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>3069.85</v>
+        <v>3092.7</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>2986</v>
+        <v>2995</v>
       </c>
       <c r="P109" s="20" t="n"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-90.05</v>
+        <v>-87.59999999999999</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3071.05</v>
+        <v>3087.35</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>2981</v>
+        <v>2992</v>
       </c>
       <c r="P110" s="20" t="n"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-93.15000000000001</v>
+        <v>-83.84999999999999</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3083.15</v>
+        <v>3073.6</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="P111" s="20" t="n"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-100.85</v>
+        <v>-90.05</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -6294,5087 +6294,5087 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>2969</v>
+        <v>2986</v>
       </c>
       <c r="P112" s="20" t="n"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-93.05</v>
+        <v>-93.15000000000001</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3061.05</v>
+        <v>3071.05</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>2968</v>
+        <v>2981</v>
       </c>
       <c r="P113" s="20" t="n"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-88.90000000000001</v>
+        <v>-100.85</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3079.9</v>
+        <v>3083.15</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="P114" s="20" t="n"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-87.95</v>
+        <v>-93.05</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>3061.95</v>
+        <v>3069.85</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>2974</v>
+        <v>2969</v>
       </c>
       <c r="P115" s="20" t="n"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-83.59999999999999</v>
+        <v>-88.90000000000001</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3064.6</v>
+        <v>3061.05</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>2981</v>
+        <v>2968</v>
       </c>
       <c r="P116" s="20" t="n"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-103</v>
+        <v>-87.95</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>3078</v>
+        <v>3079.9</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>2975</v>
+        <v>2991</v>
       </c>
       <c r="P117" s="20" t="n"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-103.7</v>
+        <v>-83.59999999999999</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>3062.7</v>
+        <v>3061.95</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>2959</v>
+        <v>2974</v>
       </c>
       <c r="P118" s="20" t="n"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-107.4</v>
+        <v>-103</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3081.4</v>
+        <v>3064.6</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>2974</v>
+        <v>2981</v>
       </c>
       <c r="P119" s="20" t="n"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-103.85</v>
+        <v>-103.7</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>3031.85</v>
+        <v>3078</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>2928</v>
+        <v>2975</v>
       </c>
       <c r="P120" s="20" t="n"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-86.40000000000001</v>
+        <v>-107.4</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3047.4</v>
+        <v>3062.7</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="P121" s="20" t="n"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-89.90000000000001</v>
+        <v>-103.85</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3067.9</v>
+        <v>3081.4</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="P122" s="20" t="n"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-92.7</v>
+        <v>-86.40000000000001</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>3056.7</v>
+        <v>3031.85</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>2964</v>
+        <v>2928</v>
       </c>
       <c r="P123" s="20" t="n"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-89.45</v>
+        <v>-89.90000000000001</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>3069.45</v>
+        <v>3047.4</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>2980</v>
+        <v>2961</v>
       </c>
       <c r="P124" s="20" t="n"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-84.55</v>
+        <v>-92.7</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>3088.55</v>
+        <v>3067.9</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>3004</v>
+        <v>2978</v>
       </c>
       <c r="P125" s="20" t="n"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-66.09999999999999</v>
+        <v>-89.45</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3112.1</v>
+        <v>3056.7</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>3046</v>
+        <v>2964</v>
       </c>
       <c r="P126" s="20" t="n"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-78.15000000000001</v>
+        <v>-84.55</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>3139.15</v>
+        <v>3069.45</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>3061</v>
+        <v>2980</v>
       </c>
       <c r="P127" s="20" t="n"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-86.2</v>
+        <v>-66.09999999999999</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3147.2</v>
+        <v>3088.55</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>3061</v>
+        <v>3004</v>
       </c>
       <c r="P128" s="20" t="n"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-78.25</v>
+        <v>-78.15000000000001</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>3136.25</v>
+        <v>3112.1</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>3058</v>
+        <v>3046</v>
       </c>
       <c r="P129" s="20" t="n"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-73.25</v>
+        <v>-86.2</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3142.25</v>
+        <v>3139.15</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="H130" t="n">
-        <v>3069</v>
+        <v>3061</v>
       </c>
       <c r="P130" s="20" t="n"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-78.34999999999999</v>
+        <v>-78.25</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3160.35</v>
+        <v>3147.2</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>3082</v>
+        <v>3061</v>
       </c>
       <c r="P131" s="20" t="n"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-70.05</v>
+        <v>-73.25</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3188.05</v>
+        <v>3136.25</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="H132" t="n">
-        <v>3118</v>
+        <v>3058</v>
       </c>
       <c r="P132" s="20" t="n"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-66.90000000000001</v>
+        <v>-78.34999999999999</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>3193.9</v>
+        <v>3142.25</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>3127</v>
+        <v>3069</v>
       </c>
       <c r="P133" s="20" t="n"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-59.15</v>
+        <v>-70.05</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>3138.15</v>
+        <v>3160.35</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>3079</v>
+        <v>3082</v>
       </c>
       <c r="P134" s="20" t="n"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-75.2</v>
+        <v>-66.90000000000001</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>3157.2</v>
+        <v>3188.05</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>3082</v>
+        <v>3118</v>
       </c>
       <c r="P135" s="20" t="n"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-84.45</v>
+        <v>-59.15</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>3106.45</v>
+        <v>3193.9</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>3022</v>
+        <v>3127</v>
       </c>
       <c r="P136" s="20" t="n"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-65.95</v>
+        <v>-75.2</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3117.95</v>
+        <v>3138.15</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>3052</v>
+        <v>3079</v>
       </c>
       <c r="P137" s="20" t="n"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-59.1</v>
+        <v>-84.45</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3157.1</v>
+        <v>3157.2</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>3098</v>
+        <v>3082</v>
       </c>
       <c r="P138" s="20" t="n"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-71.65000000000001</v>
+        <v>-65.95</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>3148.65</v>
+        <v>3106.45</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>3077</v>
+        <v>3022</v>
       </c>
       <c r="P139" s="20" t="n"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-68.95</v>
+        <v>-59.1</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3164.95</v>
+        <v>3117.95</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>3096</v>
+        <v>3052</v>
       </c>
       <c r="P140" s="20" t="n"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-81.8</v>
+        <v>-71.65000000000001</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3181.8</v>
+        <v>3157.1</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="P141" s="20" t="n"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-59.85</v>
+        <v>-68.95</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3188.85</v>
+        <v>3148.65</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>3129</v>
+        <v>3077</v>
       </c>
       <c r="P142" s="20" t="n"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-87.3</v>
+        <v>-81.8</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>3188.3</v>
+        <v>3164.95</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>3101</v>
+        <v>3096</v>
       </c>
       <c r="P143" s="20" t="n"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-114.1</v>
+        <v>-59.85</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>3220.1</v>
+        <v>3181.8</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>3106</v>
+        <v>3100</v>
       </c>
       <c r="P144" s="20" t="n"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-97.25</v>
+        <v>-87.3</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>3234.25</v>
+        <v>3188.85</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>3137</v>
+        <v>3129</v>
       </c>
       <c r="P145" s="20" t="n"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-98.95</v>
+        <v>-114.1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>3173.95</v>
+        <v>3188.3</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>3075</v>
+        <v>3101</v>
       </c>
       <c r="P146" s="20" t="n"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-90.34999999999999</v>
+        <v>-97.25</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>3203.35</v>
+        <v>3220.1</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>3113</v>
+        <v>3106</v>
       </c>
       <c r="P147" s="20" t="n"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-91.3</v>
+        <v>-98.95</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>3167.3</v>
+        <v>3234.25</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>3076</v>
+        <v>3137</v>
       </c>
       <c r="P148" s="20" t="n"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-79.15000000000001</v>
+        <v>-90.34999999999999</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3171.15</v>
+        <v>3173.95</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>3092</v>
+        <v>3075</v>
       </c>
       <c r="P149" s="20" t="n"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-89.84999999999999</v>
+        <v>-91.3</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>3182.85</v>
+        <v>3203.35</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>3093</v>
+        <v>3113</v>
       </c>
       <c r="P150" s="20" t="n"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-70.59999999999999</v>
+        <v>-79.15000000000001</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3195.6</v>
+        <v>3167.3</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>3125</v>
+        <v>3076</v>
       </c>
       <c r="P151" s="20" t="n"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-48.2</v>
+        <v>-89.84999999999999</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3174.2</v>
+        <v>3171.15</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>3126</v>
+        <v>3092</v>
       </c>
       <c r="P152" s="20" t="n"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-33.6</v>
+        <v>-70.59999999999999</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3164.6</v>
+        <v>3182.85</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>3131</v>
+        <v>3093</v>
       </c>
       <c r="P153" s="20" t="n"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-38.15</v>
+        <v>-48.2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>3177.15</v>
+        <v>3195.6</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>3139</v>
+        <v>3125</v>
       </c>
       <c r="P154" s="20" t="n"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-45.05</v>
+        <v>-33.6</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3133.05</v>
+        <v>3174.2</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>3088</v>
+        <v>3126</v>
       </c>
       <c r="P155" s="20" t="n"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-40.6</v>
+        <v>-38.15</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>3141.6</v>
+        <v>3164.6</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>3101</v>
+        <v>3131</v>
       </c>
       <c r="P156" s="20" t="n"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-210.25</v>
+        <v>-45.05</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>3293.25</v>
+        <v>3177.15</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>3083</v>
+        <v>3139</v>
       </c>
       <c r="P157" s="20" t="n"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-190.7</v>
+        <v>-40.6</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>3354.7</v>
+        <v>3133.05</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>3164</v>
+        <v>3088</v>
       </c>
       <c r="P158" s="20" t="n"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-197.8</v>
+        <v>-210.25</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>3363.8</v>
+        <v>3141.6</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>3166</v>
+        <v>3101</v>
       </c>
       <c r="P159" s="20" t="n"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-200.4</v>
+        <v>-190.7</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3370.4</v>
+        <v>3293.25</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>3170</v>
+        <v>3083</v>
       </c>
       <c r="P160" s="20" t="n"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-146.35</v>
+        <v>-197.8</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>3305.35</v>
+        <v>3354.7</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>3159</v>
+        <v>3164</v>
       </c>
       <c r="P161" s="20" t="n"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-147.1</v>
+        <v>-200.4</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>3344.1</v>
+        <v>3363.8</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>3197</v>
+        <v>3166</v>
       </c>
       <c r="P162" s="20" t="n"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-152.05</v>
+        <v>-146.35</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>3360.05</v>
+        <v>3370.4</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>3208</v>
+        <v>3170</v>
       </c>
       <c r="P163" s="20" t="n"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-124.75</v>
+        <v>-147.1</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>3333.75</v>
+        <v>3305.35</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>3209</v>
+        <v>3159</v>
       </c>
       <c r="P164" s="20" t="n"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-95.2</v>
+        <v>-152.05</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>3315.2</v>
+        <v>3344.1</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>3220</v>
+        <v>3197</v>
       </c>
       <c r="P165" s="20" t="n"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-118.9</v>
+        <v>-124.75</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>3322.9</v>
+        <v>3360.05</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="P166" s="20" t="n"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-99.75</v>
+        <v>-95.2</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>3255.75</v>
+        <v>3333.75</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>3156</v>
+        <v>3209</v>
       </c>
       <c r="P167" s="20" t="n"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-99.40000000000001</v>
+        <v>-118.9</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>3275.4</v>
+        <v>3315.2</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>3176</v>
+        <v>3220</v>
       </c>
       <c r="P168" s="20" t="n"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-111.5</v>
+        <v>-99.75</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>3273.5</v>
+        <v>3322.9</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>3162</v>
+        <v>3204</v>
       </c>
       <c r="P169" s="20" t="n"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-132.4</v>
+        <v>-99.40000000000001</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3323.4</v>
+        <v>3255.75</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>3191</v>
+        <v>3156</v>
       </c>
       <c r="P170" s="20" t="n"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-113.7</v>
+        <v>-111.5</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>3330.7</v>
+        <v>3275.4</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>3217</v>
+        <v>3176</v>
       </c>
       <c r="P171" s="20" t="n"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-104.05</v>
+        <v>-132.4</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3371.05</v>
+        <v>3273.5</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>3267</v>
+        <v>3162</v>
       </c>
       <c r="P172" s="20" t="n"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-97.5</v>
+        <v>-113.7</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3353.5</v>
+        <v>3323.4</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>3256</v>
+        <v>3191</v>
       </c>
       <c r="P173" s="20" t="n"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-94.65000000000001</v>
+        <v>-104.05</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>3320.65</v>
+        <v>3330.7</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>3226</v>
+        <v>3217</v>
       </c>
       <c r="P174" s="20" t="n"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-118.65</v>
+        <v>-97.5</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3327.65</v>
+        <v>3371.05</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>3209</v>
+        <v>3267</v>
       </c>
       <c r="P175" s="20" t="n"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-96.55</v>
+        <v>-94.65000000000001</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>3316.55</v>
+        <v>3353.5</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>3220</v>
+        <v>3256</v>
       </c>
       <c r="P176" s="20" t="n"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-92.3</v>
+        <v>-118.65</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>3344.3</v>
+        <v>3320.65</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>3252</v>
+        <v>3226</v>
       </c>
       <c r="P177" s="20" t="n"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-51.1</v>
+        <v>-96.55</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>3333.1</v>
+        <v>3327.65</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>3282</v>
+        <v>3209</v>
       </c>
       <c r="P178" s="20" t="n"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-67.2</v>
+        <v>-92.3</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>3326.2</v>
+        <v>3316.55</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>3259</v>
+        <v>3220</v>
       </c>
       <c r="P179" s="20" t="n"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-78.7</v>
+        <v>-51.1</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>3360.7</v>
+        <v>3344.3</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>3282</v>
+        <v>3252</v>
       </c>
       <c r="P180" s="20" t="n"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-69.90000000000001</v>
+        <v>-67.2</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>3365.9</v>
+        <v>3333.1</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>3296</v>
+        <v>3282</v>
       </c>
       <c r="P181" s="20" t="n"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-73.15000000000001</v>
+        <v>-78.7</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3401.15</v>
+        <v>3326.2</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>3328</v>
+        <v>3259</v>
       </c>
       <c r="P182" s="20" t="n"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-80.5</v>
+        <v>-69.90000000000001</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>3409.5</v>
+        <v>3360.7</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>3329</v>
+        <v>3282</v>
       </c>
       <c r="P183" s="20" t="n"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-74.15000000000001</v>
+        <v>-73.15000000000001</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3413.15</v>
+        <v>3365.9</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>3339</v>
+        <v>3296</v>
       </c>
       <c r="P184" s="20" t="n"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-145.1</v>
+        <v>-80.5</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>3418.1</v>
+        <v>3401.15</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>3273</v>
+        <v>3328</v>
       </c>
       <c r="P185" s="20" t="n"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-123</v>
+        <v>-74.15000000000001</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>3463</v>
+        <v>3409.5</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>3340</v>
+        <v>3329</v>
       </c>
       <c r="P186" s="20" t="n"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-139.45</v>
+        <v>-145.1</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>3500.45</v>
+        <v>3413.15</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>3361</v>
+        <v>3339</v>
       </c>
       <c r="P187" s="20" t="n"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-135.9</v>
+        <v>-123</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>3493.9</v>
+        <v>3418.1</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>3358</v>
+        <v>3273</v>
       </c>
       <c r="P188" s="20" t="n"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-128.6</v>
+        <v>-139.45</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>3443.6</v>
+        <v>3463</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>3315</v>
+        <v>3340</v>
       </c>
       <c r="P189" s="20" t="n"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-129.6</v>
+        <v>-135.9</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>3442.6</v>
+        <v>3500.45</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>3313</v>
+        <v>3361</v>
       </c>
       <c r="P190" s="20" t="n"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-127.3</v>
+        <v>-128.6</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>3417.3</v>
+        <v>3493.9</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>3290</v>
+        <v>3358</v>
       </c>
       <c r="P191" s="20" t="n"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-156.6</v>
+        <v>-129.6</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>3418.6</v>
+        <v>3443.6</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>3262</v>
+        <v>3315</v>
       </c>
       <c r="P192" s="20" t="n"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-154.85</v>
+        <v>-127.3</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>3419.85</v>
+        <v>3442.6</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>3265</v>
+        <v>3313</v>
       </c>
       <c r="P193" s="20" t="n"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-177.45</v>
+        <v>-156.6</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3469.45</v>
+        <v>3417.3</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="P194" s="20" t="n"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-168.9</v>
+        <v>-154.85</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>3443.9</v>
+        <v>3418.6</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>3275</v>
+        <v>3262</v>
       </c>
       <c r="P195" s="20" t="n"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-147.05</v>
+        <v>-177.45</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>3478.05</v>
+        <v>3419.85</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>3331</v>
+        <v>3265</v>
       </c>
       <c r="P196" s="20" t="n"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-130.15</v>
+        <v>-168.9</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>3482.15</v>
+        <v>3469.45</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>3352</v>
+        <v>3292</v>
       </c>
       <c r="P197" s="20" t="n"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-105.5</v>
+        <v>-147.05</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>3462.5</v>
+        <v>3443.9</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>3357</v>
+        <v>3275</v>
       </c>
       <c r="P198" s="20" t="n"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-97.7</v>
+        <v>-130.15</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>3417.7</v>
+        <v>3478.05</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>3320</v>
+        <v>3331</v>
       </c>
       <c r="P199" s="20" t="n"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-88.34999999999999</v>
+        <v>-105.5</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>3470.35</v>
+        <v>3482.15</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>3382</v>
+        <v>3352</v>
       </c>
       <c r="P200" s="20" t="n"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-76.3</v>
+        <v>-97.7</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>3453.3</v>
+        <v>3462.5</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>3377</v>
+        <v>3357</v>
       </c>
       <c r="P201" s="20" t="n"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-86.05</v>
+        <v>-88.34999999999999</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>3438.05</v>
+        <v>3417.7</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>3352</v>
+        <v>3320</v>
       </c>
       <c r="P202" s="20" t="n"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-103.35</v>
+        <v>-76.3</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>3440.35</v>
+        <v>3470.35</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>3337</v>
+        <v>3382</v>
       </c>
       <c r="P203" s="20" t="n"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-98.65000000000001</v>
+        <v>-86.05</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>3452.65</v>
+        <v>3453.3</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="H204" t="n">
-        <v>3354</v>
+        <v>3377</v>
       </c>
       <c r="P204" s="20" t="n"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-80.84999999999999</v>
+        <v>-103.35</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3434.85</v>
+        <v>3438.05</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="P205" s="20" t="n"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-92.95</v>
+        <v>-98.65000000000001</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>3464.95</v>
+        <v>3440.35</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>3372</v>
+        <v>3337</v>
       </c>
       <c r="P206" s="20" t="n"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-121.15</v>
+        <v>-80.84999999999999</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>3448.15</v>
+        <v>3452.65</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>3327</v>
+        <v>3354</v>
       </c>
       <c r="P207" s="20" t="n"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-108</v>
+        <v>-92.95</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3398</v>
+        <v>3434.85</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="H208" t="n">
-        <v>3290</v>
+        <v>3354</v>
       </c>
       <c r="P208" s="20" t="n"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-113.35</v>
+        <v>-121.15</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>3396.35</v>
+        <v>3464.95</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="H209" t="n">
-        <v>3283</v>
+        <v>3372</v>
       </c>
       <c r="P209" s="20" t="n"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-119.95</v>
+        <v>-108</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>3368.95</v>
+        <v>3448.15</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="H210" t="n">
-        <v>3249</v>
+        <v>3327</v>
       </c>
       <c r="P210" s="20" t="n"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-119.7</v>
+        <v>-113.35</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>3321.7</v>
+        <v>3398</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="H211" t="n">
-        <v>3202</v>
+        <v>3290</v>
       </c>
       <c r="P211" s="20" t="n"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-126.15</v>
+        <v>-119.95</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>3331.15</v>
+        <v>3396.35</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="H212" t="n">
-        <v>3205</v>
+        <v>3283</v>
       </c>
       <c r="P212" s="20" t="n"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-104.75</v>
+        <v>-119.7</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>3315.75</v>
+        <v>3368.95</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="H213" t="n">
-        <v>3211</v>
+        <v>3249</v>
       </c>
       <c r="P213" s="20" t="n"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-97.25</v>
+        <v>-126.15</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>3336.25</v>
+        <v>3321.7</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="H214" t="n">
-        <v>3239</v>
+        <v>3202</v>
       </c>
       <c r="P214" s="20" t="n"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-98.3</v>
+        <v>-104.75</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>3350.3</v>
+        <v>3331.15</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>3252</v>
+        <v>3205</v>
       </c>
       <c r="P215" s="20" t="n"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-107.05</v>
+        <v>-97.25</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>3379.05</v>
+        <v>3315.75</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>3272</v>
+        <v>3211</v>
       </c>
       <c r="P216" s="20" t="n"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-135.9</v>
+        <v>-98.3</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>3441.9</v>
+        <v>3336.25</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>3306</v>
+        <v>3239</v>
       </c>
       <c r="P217" s="20" t="n"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-121.3</v>
+        <v>-107.05</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>3430.3</v>
+        <v>3350.3</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="H218" t="n">
-        <v>3309</v>
+        <v>3252</v>
       </c>
       <c r="P218" s="20" t="n"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-100.6</v>
+        <v>-135.9</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>3417.6</v>
+        <v>3379.05</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="H219" t="n">
-        <v>3317</v>
+        <v>3272</v>
       </c>
       <c r="P219" s="20" t="n"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-113.15</v>
+        <v>-121.3</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>3381.15</v>
+        <v>3441.9</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="H220" t="n">
-        <v>3268</v>
+        <v>3306</v>
       </c>
       <c r="P220" s="20" t="n"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>-117.8</v>
+        <v>-100.6</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>3422.8</v>
+        <v>3430.3</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="H221" t="n">
-        <v>3305</v>
+        <v>3309</v>
       </c>
       <c r="P221" s="20" t="n"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>-127.95</v>
+        <v>-113.15</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>3427.95</v>
+        <v>3417.6</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="H222" t="n">
-        <v>3300</v>
+        <v>3317</v>
       </c>
       <c r="P222" s="20" t="n"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>-111.85</v>
+        <v>-117.8</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>3425.85</v>
+        <v>3381.15</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="H223" t="n">
-        <v>3314</v>
+        <v>3268</v>
       </c>
       <c r="P223" s="20" t="n"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>-127.75</v>
+        <v>-127.95</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>3417.75</v>
+        <v>3422.8</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="H224" t="n">
-        <v>3290</v>
+        <v>3305</v>
       </c>
       <c r="P224" s="20" t="n"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>-111.55</v>
+        <v>-111.85</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>3390.55</v>
+        <v>3427.95</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="H225" t="n">
-        <v>3279</v>
+        <v>3300</v>
       </c>
       <c r="P225" s="20" t="n"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>-113.7</v>
+        <v>-127.75</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>3400.7</v>
+        <v>3425.85</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="H226" t="n">
-        <v>3287</v>
+        <v>3314</v>
       </c>
       <c r="P226" s="20" t="n"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>-89.95</v>
+        <v>-111.55</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>3401.95</v>
+        <v>3417.75</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>3312</v>
+        <v>3290</v>
       </c>
       <c r="P227" s="20" t="n"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>-84.55</v>
+        <v>-113.7</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>3448.55</v>
+        <v>3390.55</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="H228" t="n">
-        <v>3364</v>
+        <v>3279</v>
       </c>
       <c r="P228" s="20" t="n"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>-109.75</v>
+        <v>-89.95</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>3471.75</v>
+        <v>3400.7</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>3362</v>
+        <v>3287</v>
       </c>
       <c r="P229" s="20" t="n"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>-112.4</v>
+        <v>-84.55</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>3472.4</v>
+        <v>3401.95</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>3360</v>
+        <v>3312</v>
       </c>
       <c r="P230" s="20" t="n"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>-105.25</v>
+        <v>-109.75</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>3533.25</v>
+        <v>3448.55</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="H231" t="n">
-        <v>3428</v>
+        <v>3364</v>
       </c>
       <c r="P231" s="20" t="n"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>-110.65</v>
+        <v>-112.4</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>3523.65</v>
+        <v>3471.75</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>3413</v>
+        <v>3362</v>
       </c>
       <c r="P232" s="20" t="n"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>-117.15</v>
+        <v>-105.25</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>3519.15</v>
+        <v>3472.4</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="H233" t="n">
-        <v>3402</v>
+        <v>3360</v>
       </c>
       <c r="P233" s="20" t="n"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>-144.7</v>
+        <v>-110.65</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>3474.7</v>
+        <v>3533.25</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="H234" t="n">
-        <v>3330</v>
+        <v>3428</v>
       </c>
       <c r="P234" s="20" t="n"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>-150.5</v>
+        <v>-117.15</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>3461.5</v>
+        <v>3523.65</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="H235" t="n">
-        <v>3311</v>
+        <v>3413</v>
       </c>
       <c r="P235" s="20" t="n"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>-186.35</v>
+        <v>-144.7</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>3466.35</v>
+        <v>3519.15</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="H236" t="n">
-        <v>3280</v>
+        <v>3402</v>
       </c>
       <c r="P236" s="20" t="n"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>-155.4</v>
+        <v>-150.5</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>3494.4</v>
+        <v>3474.7</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="H237" t="n">
-        <v>3339</v>
+        <v>3330</v>
       </c>
       <c r="P237" s="20" t="n"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-160.2</v>
+        <v>-186.35</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>3512.2</v>
+        <v>3461.5</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="H238" t="n">
-        <v>3352</v>
+        <v>3311</v>
       </c>
       <c r="P238" s="20" t="n"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-170.7</v>
+        <v>-155.4</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>3503.7</v>
+        <v>3466.35</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="H239" t="n">
-        <v>3333</v>
+        <v>3280</v>
       </c>
       <c r="P239" s="20" t="n"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-175.5</v>
+        <v>-160.2</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>3493.5</v>
+        <v>3494.4</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="H240" t="n">
-        <v>3318</v>
+        <v>3339</v>
       </c>
       <c r="P240" s="20" t="n"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-157.8</v>
+        <v>-170.7</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>3469.8</v>
+        <v>3512.2</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="H241" t="n">
-        <v>3312</v>
+        <v>3352</v>
       </c>
       <c r="P241" s="20" t="n"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-189.9</v>
+        <v>-175.5</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>3498.9</v>
+        <v>3503.7</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>3309</v>
+        <v>3333</v>
       </c>
       <c r="P242" s="20" t="n"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>-182.85</v>
+        <v>-157.8</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>3485.85</v>
+        <v>3493.5</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="H243" t="n">
-        <v>3303</v>
+        <v>3318</v>
       </c>
       <c r="P243" s="20" t="n"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>-187.05</v>
+        <v>-189.9</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>3484.05</v>
+        <v>3469.8</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="H244" t="n">
-        <v>3297</v>
+        <v>3312</v>
       </c>
       <c r="P244" s="20" t="n"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>-182.8</v>
+        <v>-182.85</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>3459.8</v>
+        <v>3498.9</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="H245" t="n">
-        <v>3277</v>
+        <v>3309</v>
       </c>
       <c r="P245" s="20" t="n"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>-170.75</v>
+        <v>-187.05</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>3502.75</v>
+        <v>3485.85</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="H246" t="n">
-        <v>3332</v>
+        <v>3303</v>
       </c>
       <c r="P246" s="20" t="n"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>-156.9</v>
+        <v>-182.8</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>3475.9</v>
+        <v>3484.05</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="H247" t="n">
-        <v>3319</v>
+        <v>3297</v>
       </c>
       <c r="P247" s="20" t="n"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>-169.45</v>
+        <v>-170.75</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>3491.45</v>
+        <v>3459.8</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="H248" t="n">
-        <v>3322</v>
+        <v>3277</v>
       </c>
       <c r="P248" s="20" t="n"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>-176.2</v>
+        <v>-156.9</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3455.2</v>
+        <v>3502.75</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="H249" t="n">
-        <v>3279</v>
+        <v>3332</v>
       </c>
       <c r="P249" s="20" t="n"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>-170.2</v>
+        <v>-169.45</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>3402.2</v>
+        <v>3475.9</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="H250" t="n">
-        <v>3232</v>
+        <v>3319</v>
       </c>
       <c r="P250" s="20" t="n"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>-130.45</v>
+        <v>-176.2</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3443.45</v>
+        <v>3491.45</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="H251" t="n">
-        <v>3313</v>
+        <v>3322</v>
       </c>
       <c r="P251" s="20" t="n"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>-127.25</v>
+        <v>-170.2</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>3464.25</v>
+        <v>3455.2</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="H252" t="n">
-        <v>3337</v>
+        <v>3279</v>
       </c>
       <c r="P252" s="20" t="n"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>-122.95</v>
+        <v>-130.45</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>3466.95</v>
+        <v>3402.2</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="H253" t="n">
-        <v>3344</v>
+        <v>3232</v>
       </c>
       <c r="P253" s="20" t="n"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>-131.65</v>
+        <v>-127.25</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>3462.65</v>
+        <v>3443.45</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="H254" t="n">
-        <v>3331</v>
+        <v>3313</v>
       </c>
       <c r="P254" s="20" t="n"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>-146.7</v>
+        <v>-122.95</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>3513.7</v>
+        <v>3464.25</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="H255" t="n">
-        <v>3367</v>
+        <v>3337</v>
       </c>
       <c r="P255" s="20" t="n"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>-124.65</v>
+        <v>-131.65</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>3560.65</v>
+        <v>3466.95</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="H256" t="n">
-        <v>3436</v>
+        <v>3344</v>
       </c>
       <c r="P256" s="20" t="n"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>-122.55</v>
+        <v>-146.7</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>3514.55</v>
+        <v>3462.65</v>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="H257" t="n">
-        <v>3392</v>
+        <v>3331</v>
       </c>
       <c r="P257" s="20" t="n"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>-135.2</v>
+        <v>-124.65</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>3568.2</v>
+        <v>3513.7</v>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="H258" t="n">
-        <v>3433</v>
+        <v>3367</v>
       </c>
       <c r="P258" s="20" t="n"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>-124.8</v>
+        <v>-122.55</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>3549.8</v>
+        <v>3560.65</v>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="H259" t="n">
-        <v>3425</v>
+        <v>3436</v>
       </c>
       <c r="P259" s="20" t="n"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>-115.1</v>
+        <v>-135.2</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>3508.1</v>
+        <v>3514.55</v>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="H260" t="n">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="P260" s="20" t="n"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>-115.55</v>
+        <v>-124.8</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>3542.55</v>
+        <v>3568.2</v>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="H261" t="n">
-        <v>3427</v>
+        <v>3433</v>
       </c>
       <c r="P261" s="20" t="n"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>-117.35</v>
+        <v>-115.1</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>3559.35</v>
+        <v>3549.8</v>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="H262" t="n">
-        <v>3442</v>
+        <v>3425</v>
       </c>
       <c r="P262" s="20" t="n"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>-112.5</v>
+        <v>-115.55</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3534.5</v>
+        <v>3508.1</v>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="H263" t="n">
-        <v>3422</v>
+        <v>3393</v>
       </c>
       <c r="P263" s="20" t="n"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>-114.45</v>
+        <v>-117.35</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>3565.45</v>
+        <v>3542.55</v>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="H264" t="n">
-        <v>3451</v>
+        <v>3427</v>
       </c>
       <c r="P264" s="20" t="n"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>-127.15</v>
+        <v>-112.5</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>3503.15</v>
+        <v>3559.35</v>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="H265" t="n">
-        <v>3376</v>
+        <v>3442</v>
       </c>
       <c r="P265" s="20" t="n"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>-134</v>
+        <v>-114.45</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>3464</v>
+        <v>3534.5</v>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="H266" t="n">
-        <v>3330</v>
+        <v>3422</v>
       </c>
       <c r="P266" s="20" t="n"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>-130.2</v>
+        <v>-127.15</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>3446.2</v>
+        <v>3565.45</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="H267" t="n">
-        <v>3316</v>
+        <v>3451</v>
       </c>
       <c r="P267" s="20" t="n"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>-135.65</v>
+        <v>-134</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>3484.65</v>
+        <v>3503.15</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="H268" t="n">
-        <v>3349</v>
+        <v>3376</v>
       </c>
       <c r="P268" s="20" t="n"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>-148.9</v>
+        <v>-130.2</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3506.9</v>
+        <v>3464</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="H269" t="n">
-        <v>3358</v>
+        <v>3330</v>
       </c>
       <c r="P269" s="20" t="n"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>-150.85</v>
+        <v>-135.65</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>3486.85</v>
+        <v>3446.2</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="H270" t="n">
-        <v>3336</v>
+        <v>3316</v>
       </c>
       <c r="P270" s="20" t="n"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>-151.2</v>
+        <v>-148.9</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>3451.2</v>
+        <v>3484.65</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="H271" t="n">
-        <v>3300</v>
+        <v>3349</v>
       </c>
       <c r="P271" s="20" t="n"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>-134</v>
+        <v>-150.85</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3581</v>
+        <v>3506.9</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="H272" t="n">
-        <v>3447</v>
+        <v>3358</v>
       </c>
       <c r="P272" s="20" t="n"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>-153.05</v>
+        <v>-151.2</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>3620.05</v>
+        <v>3486.85</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="H273" t="n">
-        <v>3467</v>
+        <v>3336</v>
       </c>
       <c r="P273" s="20" t="n"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>-147.1</v>
+        <v>-134</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>3649.1</v>
+        <v>3451.2</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="H274" t="n">
-        <v>3502</v>
+        <v>3300</v>
       </c>
       <c r="P274" s="20" t="n"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>-142.8</v>
+        <v>-153.05</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>3610.8</v>
+        <v>3581</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="H275" t="n">
-        <v>3468</v>
+        <v>3447</v>
       </c>
       <c r="P275" s="20" t="n"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>-123.6</v>
+        <v>-147.1</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>3565.6</v>
+        <v>3620.05</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="H276" t="n">
-        <v>3442</v>
+        <v>3467</v>
       </c>
       <c r="P276" s="20" t="n"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>-120</v>
+        <v>-142.8</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>3586</v>
+        <v>3649.1</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="H277" t="n">
-        <v>3466</v>
+        <v>3502</v>
       </c>
       <c r="P277" s="20" t="n"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>-117.45</v>
+        <v>-123.6</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>3603.45</v>
+        <v>3610.8</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="H278" t="n">
-        <v>3486</v>
+        <v>3468</v>
       </c>
       <c r="P278" s="20" t="n"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>-174.05</v>
+        <v>-120</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>3725.05</v>
+        <v>3565.6</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="H279" t="n">
-        <v>3551</v>
+        <v>3442</v>
       </c>
       <c r="P279" s="20" t="n"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>-161.5</v>
+        <v>-117.45</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>3502.5</v>
+        <v>3586</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="H280" t="n">
-        <v>3341</v>
+        <v>3466</v>
       </c>
       <c r="P280" s="20" t="n"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>-156.35</v>
+        <v>-174.05</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>3437.35</v>
+        <v>3603.45</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="H281" t="n">
-        <v>3281</v>
+        <v>3486</v>
       </c>
       <c r="P281" s="20" t="n"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>-158.3</v>
+        <v>-161.5</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>3383.3</v>
+        <v>3725.05</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="H282" t="n">
-        <v>3225</v>
+        <v>3551</v>
       </c>
       <c r="P282" s="20" t="n"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>-134.65</v>
+        <v>-156.35</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>3351.65</v>
+        <v>3502.5</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="H283" t="n">
-        <v>3217</v>
+        <v>3341</v>
       </c>
       <c r="P283" s="20" t="n"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>-138.7</v>
+        <v>-158.3</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>3225.7</v>
+        <v>3437.35</v>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="H284" t="n">
-        <v>3087</v>
+        <v>3281</v>
       </c>
       <c r="P284" s="20" t="n"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>-132.25</v>
+        <v>-134.65</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>3297.25</v>
+        <v>3383.3</v>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="H285" t="n">
-        <v>3165</v>
+        <v>3225</v>
       </c>
       <c r="P285" s="20" t="n"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>-129.35</v>
+        <v>-138.7</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>3335.35</v>
+        <v>3351.65</v>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="H286" t="n">
-        <v>3206</v>
+        <v>3217</v>
       </c>
       <c r="P286" s="20" t="n"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>-126</v>
+        <v>-132.25</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>3276</v>
+        <v>3225.7</v>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="H287" t="n">
-        <v>3150</v>
+        <v>3087</v>
       </c>
       <c r="P287" s="20" t="n"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>-122.8</v>
+        <v>-129.35</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>3312.8</v>
+        <v>3297.25</v>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="H288" t="n">
-        <v>3190</v>
+        <v>3165</v>
       </c>
       <c r="P288" s="20" t="n"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>-148.65</v>
+        <v>-126</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>3333.65</v>
+        <v>3335.35</v>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="H289" t="n">
-        <v>3185</v>
+        <v>3206</v>
       </c>
       <c r="P289" s="20" t="n"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>-158.55</v>
+        <v>-122.8</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>3295.55</v>
+        <v>3276</v>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="H290" t="n">
-        <v>3137</v>
+        <v>3150</v>
       </c>
       <c r="P290" s="20" t="n"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>-153.5</v>
+        <v>-148.65</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>3233.5</v>
+        <v>3312.8</v>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="H291" t="n">
-        <v>3080</v>
+        <v>3190</v>
       </c>
       <c r="P291" s="20" t="n"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>-176.5</v>
+        <v>-158.55</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>3254.5</v>
+        <v>3333.65</v>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="H292" t="n">
-        <v>3078</v>
+        <v>3185</v>
       </c>
       <c r="P292" s="20" t="n"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>-210.55</v>
+        <v>-153.5</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>3261.55</v>
+        <v>3295.55</v>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="H293" t="n">
-        <v>3051</v>
+        <v>3137</v>
       </c>
       <c r="P293" s="20" t="n"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>-178.2</v>
+        <v>-176.5</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>3261.2</v>
+        <v>3233.5</v>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="H294" t="n">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="P294" s="20" t="n"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>-184.65</v>
+        <v>-210.55</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>3293.65</v>
+        <v>3254.5</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="H295" t="n">
-        <v>3109</v>
+        <v>3078</v>
       </c>
       <c r="P295" s="20" t="n"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>-205.95</v>
+        <v>-178.2</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>3354.95</v>
+        <v>3261.55</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="H296" t="n">
-        <v>3149</v>
+        <v>3051</v>
       </c>
       <c r="P296" s="20" t="n"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>-217.45</v>
+        <v>-184.65</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>3395.45</v>
+        <v>3261.2</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="H297" t="n">
-        <v>3178</v>
+        <v>3083</v>
       </c>
       <c r="P297" s="20" t="n"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>-258.05</v>
+        <v>-205.95</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>3480.05</v>
+        <v>3293.65</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="H298" t="n">
-        <v>3222</v>
+        <v>3109</v>
       </c>
       <c r="P298" s="20" t="n"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>-228.5</v>
+        <v>-217.45</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>3487.5</v>
+        <v>3354.95</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="H299" t="n">
-        <v>3259</v>
+        <v>3149</v>
       </c>
       <c r="P299" s="20" t="n"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/08/30</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>-212.9</v>
+        <v>-258.05</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>3476.9</v>
+        <v>3395.45</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="H300" t="n">
-        <v>3264</v>
+        <v>3178</v>
       </c>
       <c r="P300" s="20" t="n"/>
     </row>
